--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,42 @@
   </si>
   <si>
     <t>Siege Warfare</t>
+  </si>
+  <si>
+    <t>dice</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>leadership</t>
+  </si>
+  <si>
+    <t>Scimitar</t>
+  </si>
+  <si>
+    <t>Logistics 1</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>Anathema</t>
+  </si>
+  <si>
+    <t>Covert Ops</t>
+  </si>
+  <si>
+    <t>intel</t>
+  </si>
+  <si>
+    <t>Auguror</t>
+  </si>
+  <si>
+    <t>Flex Range</t>
+  </si>
+  <si>
+    <t>shield</t>
   </si>
 </sst>
 </file>
@@ -372,44 +408,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -411,7 +411,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -2,102 +2,378 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="159"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ships" sheetId="1" r:id="rId1"/>
+    <sheet name="Tactics" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Type keywords</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>ATK</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Provides</t>
+  </si>
+  <si>
+    <t>Text1</t>
+  </si>
+  <si>
+    <t>Text2</t>
+  </si>
+  <si>
+    <t>Text3</t>
+  </si>
+  <si>
+    <t>Consume Bolter dice</t>
+  </si>
+  <si>
+    <t>Consume Shield dice</t>
+  </si>
+  <si>
+    <t>Consume Speed dice</t>
+  </si>
+  <si>
+    <t>Consume Engineering dice</t>
+  </si>
+  <si>
+    <t>Consume Stealth dice</t>
+  </si>
+  <si>
+    <t>Consume Leadership dice</t>
+  </si>
+  <si>
     <t>Text</t>
   </si>
   <si>
     <t>Stiletto</t>
   </si>
   <si>
-    <t>Tackle</t>
+    <t>Frigate</t>
+  </si>
+  <si>
+    <t>(ANY)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>(SPD)</t>
+  </si>
+  <si>
+    <t>(ATK) : +1 Attack
+(DEF): +1 Shield
+(SPD)(SPD): +1/3 Speed</t>
+  </si>
+  <si>
+    <t>Tackle. +1 Shield when Dictating Range</t>
+  </si>
+  <si>
+    <t>1: +1 ATK</t>
+  </si>
+  <si>
+    <t>1: +1 Shield</t>
+  </si>
+  <si>
+    <t>1/2: +1/3 Speed</t>
+  </si>
+  <si>
+    <t>Tackle; +1 Shield when Dictating Range</t>
   </si>
   <si>
     <t>Loki</t>
   </si>
   <si>
-    <t>Skirmish Warfare</t>
+    <t>Strategic Cruiser</t>
+  </si>
+  <si>
+    <t>(ANY)(ANY)(UTL)</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>(LDR)(LDR)(LDR)</t>
+  </si>
+  <si>
+    <t>1/2: +1/3 Shield</t>
+  </si>
+  <si>
+    <t>1: +1 Speed</t>
+  </si>
+  <si>
+    <t>1: Siege Warfare – whole fleet +1 Shields</t>
+  </si>
+  <si>
+    <t>Skirmish Warfare – whole fleet +1 speed, but opposing fleet +1 Total ATK</t>
+  </si>
+  <si>
+    <t>Auguror</t>
+  </si>
+  <si>
+    <t>Cruiser</t>
+  </si>
+  <si>
+    <t>(ANY)(ANY)(ANY)</t>
+  </si>
+  <si>
+    <t>(SPD)(SPD)(UTL)</t>
+  </si>
+  <si>
+    <t>1/2: +1/2 ATK</t>
+  </si>
+  <si>
+    <t>1/2: +2/3 Shield</t>
+  </si>
+  <si>
+    <t>1: Gain Short and Long Range</t>
+  </si>
+  <si>
+    <t>Scimitar</t>
+  </si>
+  <si>
+    <t>Logistics Cruiser</t>
+  </si>
+  <si>
+    <t>(UTL)(UTL)(UTL)</t>
+  </si>
+  <si>
+    <t>1/2: Reduce total opposing ATK by 1/2</t>
+  </si>
+  <si>
+    <t>Svipul</t>
+  </si>
+  <si>
+    <t>Tactical Destroyer</t>
+  </si>
+  <si>
+    <t>(ANY)(ANY)</t>
+  </si>
+  <si>
+    <t>(SPD)(SPD)</t>
+  </si>
+  <si>
+    <t>1/2: +1/2 ATK, gain Short and Long Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/2: +1/3 Speed </t>
+  </si>
+  <si>
+    <t>Can only consume 1 kind of die during a given round</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>2: Reduce total opposing ATK by 3</t>
   </si>
   <si>
     <t>Legion</t>
   </si>
   <si>
-    <t>Siege Warfare</t>
-  </si>
-  <si>
-    <t>dice</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>leadership</t>
-  </si>
-  <si>
-    <t>Scimitar</t>
-  </si>
-  <si>
-    <t>Logistics 1</t>
-  </si>
-  <si>
-    <t>utility</t>
-  </si>
-  <si>
-    <t>Anathema</t>
-  </si>
-  <si>
-    <t>Covert Ops</t>
-  </si>
-  <si>
-    <t>intel</t>
-  </si>
-  <si>
-    <t>Auguror</t>
-  </si>
-  <si>
-    <t>Flex Range</t>
-  </si>
-  <si>
-    <t>shield</t>
+    <t>1: Skirmish Warfare — whole fleet +1 Speed</t>
+  </si>
+  <si>
+    <t>Armored Warfare: whole fleet +1 HP</t>
+  </si>
+  <si>
+    <t>Crusader</t>
+  </si>
+  <si>
+    <t>1: Gain Medium Range</t>
+  </si>
+  <si>
+    <t>Tackle; +1 ATK when in Short Range</t>
+  </si>
+  <si>
+    <t>Formation</t>
+  </si>
+  <si>
+    <t>Picket bonus</t>
+  </si>
+  <si>
+    <t>Vanguard bonus</t>
+  </si>
+  <si>
+    <t>Main Fleet bonus (FOR EACH SHIP)</t>
+  </si>
+  <si>
+    <t>Rearguard bonus</t>
+  </si>
+  <si>
+    <t>Positioning</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Ambush</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>1+ in Picket, 1+ in Rear</t>
+  </si>
+  <si>
+    <t>+1 speed</t>
+  </si>
+  <si>
+    <t>+1 ATK</t>
+  </si>
+  <si>
+    <t>Picket ahead</t>
+  </si>
+  <si>
+    <t>If your Picket is faster than opposing Picket, your Rearguard can ignore targeting priorities this round.</t>
+  </si>
+  <si>
+    <t>Frontal Assault</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>+1 shield</t>
+  </si>
+  <si>
+    <t>Together</t>
+  </si>
+  <si>
+    <t>If you Dictate Range, each ship in Main Fleet gains +1 ATK</t>
+  </si>
+  <si>
+    <t>Flanking Maneuver</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>1+ in Vanguard</t>
+  </si>
+  <si>
+    <t>Picket and Vanguard ahead</t>
+  </si>
+  <si>
+    <t>Your Vanguard determines if you Dictate Range</t>
+  </si>
+  <si>
+    <t>Rewarp</t>
+  </si>
+  <si>
+    <t>1+ in Picket</t>
+  </si>
+  <si>
+    <t>If your Picket is faster than opposing Picket, your fleet gains +2 Speed</t>
+  </si>
+  <si>
+    <t>Flytrap</t>
+  </si>
+  <si>
+    <t>+2 ATK</t>
+  </si>
+  <si>
+    <t>Your Picket may target opposing Picket as if it was Vanguard. If your Picket is faster than opposing, your Main Fleet can do the same.</t>
+  </si>
+  <si>
+    <t>Broadside</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>0 in Vanguard, 0 in Rearguard</t>
+  </si>
+  <si>
+    <t>+1 ATK, +1 Speed</t>
+  </si>
+  <si>
+    <t>Gain additional +1 ATK and +1 Speed on Main Fleet</t>
+  </si>
+  <si>
+    <t>Bait</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>+1 Speed</t>
+  </si>
+  <si>
+    <t>Vanguard ahead</t>
+  </si>
+  <si>
+    <t>Ignore your Vanguard when determining Dictate Range. Your Vanguard ignores possible opposing ATK reduction due to Range mechanics. Tactical bonuses are doubled.</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>+2 shield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="41"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,14 +388,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00DDDDDD"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -401,22 +751,88 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1" cy="1"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:lstStyle/>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="9" max="12" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,91 +840,604 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="76.5">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R9" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="3" width="11.5703125" style="3"/>
+    <col min="4" max="7" width="11.5703125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -518,9 +1447,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -30,9 +30,6 @@
     <t>ATK</t>
   </si>
   <si>
-    <t>HP</t>
-  </si>
-  <si>
     <t>SPD</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>+2 shield</t>
+  </si>
+  <si>
+    <t>DEF</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -846,57 +846,57 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="76.5">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -908,42 +908,42 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
         <v>27</v>
-      </c>
-      <c r="R2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -955,36 +955,36 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>36</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -996,33 +996,33 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
         <v>41</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>42</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
         <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1034,30 +1034,30 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
         <v>47</v>
-      </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1069,33 +1069,33 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
         <v>52</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="R6" t="s">
         <v>54</v>
-      </c>
-      <c r="R6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1107,30 +1107,30 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1142,36 +1142,36 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
-        <v>35</v>
-      </c>
       <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" t="s">
         <v>59</v>
-      </c>
-      <c r="R8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1183,25 +1183,25 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
       <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>26</v>
       </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
       <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" t="s">
         <v>62</v>
-      </c>
-      <c r="R9" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1237,197 +1237,197 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>81</v>
-      </c>
-      <c r="J3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>86</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
         <v>89</v>
-      </c>
-      <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
         <v>92</v>
-      </c>
-      <c r="H6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
         <v>97</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>102</v>
-      </c>
-      <c r="J8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -339,6 +339,23 @@
   </si>
   <si>
     <t>DEF</t>
+  </si>
+  <si>
+    <t>Proteus</t>
+  </si>
+  <si>
+    <t>(ANY)(SPD)(INT)</t>
+  </si>
+  <si>
+    <t>(LDR)(UTL)(INT)</t>
+  </si>
+  <si>
+    <t>(ATK)(ATK): +1/3 Attack
+(DEF)(DEF): +1/3 Shields</t>
+  </si>
+  <si>
+    <t>Covert Ops.
++1(ATK) when Dictating Range.</t>
   </si>
 </sst>
 </file>
@@ -388,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -396,6 +413,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -821,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1202,6 +1222,38 @@
       </c>
       <c r="R9" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="51">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -350,12 +350,13 @@
     <t>(LDR)(UTL)(INT)</t>
   </si>
   <si>
-    <t>(ATK)(ATK): +1/3 Attack
-(DEF)(DEF): +1/3 Shields</t>
-  </si>
-  <si>
     <t>Covert Ops.
 +1(ATK) when Dictating Range.</t>
+  </si>
+  <si>
+    <t>(ATK)(ATK): +1/3 Attack
+(DEF)(DEF): +1/3 Shields
+(SPD): +3 Speed, and -2 Shields</t>
   </si>
 </sst>
 </file>
@@ -844,7 +845,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1224,7 +1225,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="51">
+    <row r="10" spans="1:18" ht="89.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -1250,10 +1251,10 @@
         <v>109</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>Name</t>
   </si>
@@ -45,34 +45,10 @@
     <t>Text2</t>
   </si>
   <si>
-    <t>Text3</t>
-  </si>
-  <si>
-    <t>Consume Bolter dice</t>
-  </si>
-  <si>
-    <t>Consume Shield dice</t>
-  </si>
-  <si>
-    <t>Consume Speed dice</t>
-  </si>
-  <si>
-    <t>Consume Engineering dice</t>
-  </si>
-  <si>
-    <t>Consume Stealth dice</t>
-  </si>
-  <si>
-    <t>Consume Leadership dice</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Stiletto</t>
   </si>
   <si>
-    <t>Frigate</t>
+    <t>Interceptor Frigate</t>
   </si>
   <si>
     <t>(ANY)</t>
@@ -84,7 +60,7 @@
     <t>(SPD)</t>
   </si>
   <si>
-    <t>(ATK) : +1 Attack
+    <t>(ATK): +1 Attack
 (DEF): +1 Shield
 (SPD)(SPD): +1/3 Speed</t>
   </si>
@@ -92,18 +68,6 @@
     <t>Tackle. +1 Shield when Dictating Range</t>
   </si>
   <si>
-    <t>1: +1 ATK</t>
-  </si>
-  <si>
-    <t>1: +1 Shield</t>
-  </si>
-  <si>
-    <t>1/2: +1/3 Speed</t>
-  </si>
-  <si>
-    <t>Tackle; +1 Shield when Dictating Range</t>
-  </si>
-  <si>
     <t>Loki</t>
   </si>
   <si>
@@ -119,16 +83,9 @@
     <t>(LDR)(LDR)(LDR)</t>
   </si>
   <si>
-    <t>1/2: +1/3 Shield</t>
-  </si>
-  <si>
-    <t>1: +1 Speed</t>
-  </si>
-  <si>
-    <t>1: Siege Warfare – whole fleet +1 Shields</t>
-  </si>
-  <si>
-    <t>Skirmish Warfare – whole fleet +1 speed, but opposing fleet +1 Total ATK</t>
+    <t>(DEF)(DEF): +1/3 Shields
+(SPD): +1 Speed
+(LDR): Ignore Skirmish Warfare shields penalty</t>
   </si>
   <si>
     <t>Auguror</t>
@@ -143,13 +100,9 @@
     <t>(SPD)(SPD)(UTL)</t>
   </si>
   <si>
-    <t>1/2: +1/2 ATK</t>
-  </si>
-  <si>
-    <t>1/2: +2/3 Shield</t>
-  </si>
-  <si>
-    <t>1: Gain Short and Long Range</t>
+    <t>(ATK)(ATK): +1/3 Attack
+(DEF)(DEF): +2/3 Shields
+(UTL): Gain Short and Long Range and -1 Attack</t>
   </si>
   <si>
     <t>Scimitar</t>
@@ -161,7 +114,9 @@
     <t>(UTL)(UTL)(UTL)</t>
   </si>
   <si>
-    <t>1/2: Reduce total opposing ATK by 1/2</t>
+    <t>(DEF)(DEF): +1/3 Shields
+(SPD)(SPD): +1/3 Speed
+(UTL)(UTL): -1/3 opposing Attack</t>
   </si>
   <si>
     <t>Svipul</t>
@@ -176,37 +131,42 @@
     <t>(SPD)(SPD)</t>
   </si>
   <si>
-    <t>1/2: +1/2 ATK, gain Short and Long Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/2: +1/3 Speed </t>
-  </si>
-  <si>
-    <t>Can only consume 1 kind of die during a given round</t>
+    <t>(ATK)(ATK): +1/3 Attack
+(DEF)(DEF): +1/3 Shields 
+(SPD)(SPD): +1/3 Speed</t>
+  </si>
+  <si>
+    <t>Can't employ more than one type of upgrade</t>
   </si>
   <si>
     <t>Guardian</t>
   </si>
   <si>
-    <t>2: Reduce total opposing ATK by 3</t>
+    <t>(DEF)(DEF)(DEF): +1/3/4 Shields
+(SPD): +1 Speed
+(UTL)(UTL): -1/3 opposing Attack</t>
   </si>
   <si>
     <t>Legion</t>
   </si>
   <si>
-    <t>1: Skirmish Warfare — whole fleet +1 Speed</t>
-  </si>
-  <si>
-    <t>Armored Warfare: whole fleet +1 HP</t>
+    <t>(DEF)(DEF): +1/3 Shields
+(SPD): +1 Speed
+(LDR): Ignore Armored Warfare Speed penalty</t>
   </si>
   <si>
     <t>Crusader</t>
   </si>
   <si>
-    <t>1: Gain Medium Range</t>
-  </si>
-  <si>
-    <t>Tackle; +1 ATK when in Short Range</t>
+    <t>Combat Interceptor Frigate</t>
+  </si>
+  <si>
+    <t>(ATK): +1 Attack
+(DEF): +1 Shield
+(SPD): +1/3 Speed</t>
+  </si>
+  <si>
+    <t>Tackle. +1 Speed and +1 Attack at Short Range</t>
   </si>
   <si>
     <t>Formation</t>
@@ -227,6 +187,9 @@
     <t>Positioning</t>
   </si>
   <si>
+    <t>Text</t>
+  </si>
+  <si>
     <t>Bonus</t>
   </si>
   <si>
@@ -338,34 +301,22 @@
     <t>+2 shield</t>
   </si>
   <si>
+    <t>Skirmish Warfare (Your fleet has +1 Speed and -1 Shields)</t>
+  </si>
+  <si>
+    <t>Armored Warfare (Your ships have +1 Shield and -1 Speed)</t>
+  </si>
+  <si>
     <t>DEF</t>
   </si>
   <si>
-    <t>Proteus</t>
-  </si>
-  <si>
-    <t>(ANY)(SPD)(INT)</t>
-  </si>
-  <si>
-    <t>(LDR)(UTL)(INT)</t>
-  </si>
-  <si>
-    <t>Covert Ops.
-+1(ATK) when Dictating Range.</t>
-  </si>
-  <si>
-    <t>(ATK)(ATK): +1/3 Attack
-(DEF)(DEF): +1/3 Shields
-(SPD): +3 Speed, and -2 Shields</t>
+    <t>Opposing fleet has -1 Attack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="10"/>
@@ -406,17 +357,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -842,18 +789,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="9" max="12" width="13.85546875" customWidth="1"/>
+    <col min="9" max="10" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -867,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -884,40 +831,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="76.5">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="76.5">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -929,42 +852,27 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="102">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -976,36 +884,27 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="102">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1017,33 +916,24 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="89.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1055,30 +945,27 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="76.5">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>50</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1090,33 +977,27 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="102">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1128,30 +1009,27 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="102">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1163,36 +1041,27 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>58</v>
-      </c>
-      <c r="R8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>20</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="76.5">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1201,60 +1070,19 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="89.25">
-      <c r="A10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1278,209 +1106,209 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="3" width="11.5703125" style="3"/>
-    <col min="4" max="7" width="11.5703125" style="4"/>
+    <col min="2" max="3" width="11.5703125" style="2"/>
+    <col min="4" max="7" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
+      <c r="C1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>91</v>
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="H6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
         <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" t="s">
         <v>80</v>
-      </c>
-      <c r="J7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Ships.xlsx
+++ b/Ships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="99">
   <si>
     <t>Name</t>
   </si>
@@ -83,11 +83,6 @@
     <t>(LDR)(LDR)(LDR)</t>
   </si>
   <si>
-    <t>(DEF)(DEF): +1/3 Shields
-(SPD): +1 Speed
-(LDR): Ignore Skirmish Warfare shields penalty</t>
-  </si>
-  <si>
     <t>Auguror</t>
   </si>
   <si>
@@ -150,11 +145,6 @@
     <t>Legion</t>
   </si>
   <si>
-    <t>(DEF)(DEF): +1/3 Shields
-(SPD): +1 Speed
-(LDR): Ignore Armored Warfare Speed penalty</t>
-  </si>
-  <si>
     <t>Crusader</t>
   </si>
   <si>
@@ -311,6 +301,36 @@
   </si>
   <si>
     <t>Opposing fleet has -1 Attack</t>
+  </si>
+  <si>
+    <t>Blackbird</t>
+  </si>
+  <si>
+    <t>Electronic Warfare Cruiser</t>
+  </si>
+  <si>
+    <t>(ANY)(EWR)</t>
+  </si>
+  <si>
+    <t>(SPD)(EWR)(EWR)</t>
+  </si>
+  <si>
+    <t>ECM Warfare (Before combat with this ship, opponent loses (ATK) from his dice pool)</t>
+  </si>
+  <si>
+    <t>(DEF): +2 Shield
+(SPD): +2 Speed
+(EWR): ECM Warfare (it stacks)</t>
+  </si>
+  <si>
+    <t>(DEF)(DEF): +1/3 Shields
+(SPD): +2 Speed
+(LDR): Ignore Armored Warfare Speed penalty</t>
+  </si>
+  <si>
+    <t>(DEF)(DEF): +1/3 Shields
+(SPD): +2 Speed
+(LDR): Ignore Skirmish Warfare shields penalty</t>
   </si>
 </sst>
 </file>
@@ -357,13 +377,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -789,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -814,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -889,22 +912,22 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
+      <c r="I3" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="J3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="102">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -919,21 +942,21 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="89.25">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -948,24 +971,24 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="76.5">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -980,24 +1003,24 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" t="s">
         <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="102">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1012,18 +1035,18 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="102">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1046,19 +1069,19 @@
       <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>40</v>
+      <c r="I8" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="76.5">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1079,10 +1102,42 @@
         <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="89.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1118,197 +1173,197 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
-      </c>
-      <c r="I1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" t="s">
         <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" t="s">
         <v>62</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="J4" t="s">
         <v>67</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
         <v>78</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="J8" t="s">
         <v>83</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
